--- a/data/trans_dic/P39A5_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56,26; 68,49</t>
+          <t>56,46; 68,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>57,86; 66,72</t>
+          <t>57,44; 66,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>58,52; 65,93</t>
+          <t>58,84; 66,42</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,94; 99,03</t>
+          <t>95,77; 99,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>94,95; 97,92</t>
+          <t>94,87; 97,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,01; 98,16</t>
+          <t>96,15; 98,14</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,52; 80,72</t>
+          <t>71,29; 80,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,66; 75,6</t>
+          <t>67,07; 75,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>70,31; 76,69</t>
+          <t>70,14; 76,64</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>94,89; 99,27</t>
+          <t>94,91; 99,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,6; 96,51</t>
+          <t>78,02; 96,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,7; 97,15</t>
+          <t>85,86; 97,28</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>97,59; 100,0</t>
+          <t>97,33; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>95,62; 100,0</t>
+          <t>96,23; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>97,55; 99,82</t>
+          <t>97,78; 99,82</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>86,53; 93,6</t>
+          <t>85,91; 93,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>85,22; 92,12</t>
+          <t>84,86; 91,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>86,99; 91,98</t>
+          <t>87,03; 92,06</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>72,78; 80,65</t>
+          <t>72,45; 80,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>71,58; 85,94</t>
+          <t>71,61; 84,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>73,73; 82,33</t>
+          <t>73,74; 82,06</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>95,16; 98,45</t>
+          <t>95,19; 98,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>98,71; 99,72</t>
+          <t>98,79; 99,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>97,32; 98,95</t>
+          <t>97,42; 98,96</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>86,98; 89,46</t>
+          <t>87,05; 89,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>85,6; 88,49</t>
+          <t>85,65; 88,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>86,53; 88,51</t>
+          <t>86,74; 88,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A5_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56,46; 68,19</t>
+          <t>56,26; 68,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>57,44; 66,36</t>
+          <t>57,86; 66,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>58,84; 66,42</t>
+          <t>58,52; 65,93</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,77; 99,07</t>
+          <t>95,94; 99,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>94,87; 97,94</t>
+          <t>94,95; 97,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,15; 98,14</t>
+          <t>96,01; 98,16</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>71,29; 80,71</t>
+          <t>70,52; 80,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>67,07; 75,6</t>
+          <t>66,66; 75,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>70,14; 76,64</t>
+          <t>70,31; 76,69</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>94,91; 99,29</t>
+          <t>94,89; 99,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,02; 96,42</t>
+          <t>78,6; 96,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,86; 97,28</t>
+          <t>85,7; 97,15</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>97,33; 100,0</t>
+          <t>97,59; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>96,23; 100,0</t>
+          <t>95,62; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>97,78; 99,82</t>
+          <t>97,55; 99,82</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>85,91; 93,5</t>
+          <t>86,53; 93,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>84,86; 91,91</t>
+          <t>85,22; 92,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>87,03; 92,06</t>
+          <t>86,99; 91,98</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>72,45; 80,17</t>
+          <t>72,78; 80,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>71,61; 84,51</t>
+          <t>71,58; 85,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>73,74; 82,06</t>
+          <t>73,73; 82,33</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>95,19; 98,42</t>
+          <t>95,16; 98,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>98,79; 99,72</t>
+          <t>98,71; 99,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>97,42; 98,96</t>
+          <t>97,32; 98,95</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>87,05; 89,49</t>
+          <t>86,98; 89,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>85,65; 88,54</t>
+          <t>85,6; 88,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>86,74; 88,71</t>
+          <t>86,53; 88,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A5_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>62,65%</t>
+          <t>62,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>62,23%</t>
+          <t>62,25%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>62,44%</t>
+          <t>62,48%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56,26; 68,49</t>
+          <t>55,34; 69,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>57,86; 66,72</t>
+          <t>57,71; 66,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>58,52; 65,93</t>
+          <t>58,3; 66,33</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>96,64%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>97,28%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,94; 99,03</t>
+          <t>95,76; 99,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>94,95; 97,92</t>
+          <t>94,87; 97,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,01; 98,16</t>
+          <t>96,02; 98,16</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>76,21%</t>
+          <t>76,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>71,08%</t>
+          <t>71,07%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>73,5%</t>
+          <t>73,65%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,52; 80,72</t>
+          <t>70,76; 81,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,66; 75,6</t>
+          <t>66,58; 75,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>70,31; 76,69</t>
+          <t>70,39; 76,85</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>97,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>91,38%</t>
+          <t>77,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>85,65%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>94,89; 99,27</t>
+          <t>94,95; 99,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,6; 96,51</t>
+          <t>46,69; 96,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,7; 97,15</t>
+          <t>59,24; 97,15</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>99,23%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>99,05%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>99,13%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>97,59; 100,0</t>
+          <t>97,52; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>95,62; 100,0</t>
+          <t>95,43; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>97,55; 99,82</t>
+          <t>97,46; 99,82</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>90,52%</t>
+          <t>90,46%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>88,97%</t>
+          <t>88,9%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>89,73%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>86,53; 93,6</t>
+          <t>86,34; 93,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>85,22; 92,12</t>
+          <t>85,11; 92,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>86,99; 91,98</t>
+          <t>86,99; 91,99</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>76,61%</t>
+          <t>76,72%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>76,73%</t>
+          <t>79,59%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>76,68%</t>
+          <t>78,38%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>72,78; 80,65</t>
+          <t>72,58; 80,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>71,58; 85,94</t>
+          <t>71,64; 90,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>73,73; 82,33</t>
+          <t>73,96; 86,57</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>98,51%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>95,16; 98,45</t>
+          <t>96,25; 99,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>98,71; 99,72</t>
+          <t>98,68; 99,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>97,32; 98,95</t>
+          <t>97,64; 99,22</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>88,23%</t>
+          <t>88,2%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>87,07%</t>
+          <t>85,37%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>87,62%</t>
+          <t>86,76%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>86,98; 89,46</t>
+          <t>86,59; 91,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>85,6; 88,49</t>
+          <t>79,01; 87,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>86,53; 88,51</t>
+          <t>83,85; 88,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A5_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,34; 69,19</t>
+          <t>55,59; 69,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>57,71; 66,84</t>
+          <t>57,71; 66,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>58,3; 66,33</t>
+          <t>58,08; 66,6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,76; 99,03</t>
+          <t>95,71; 99,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>94,87; 97,9</t>
+          <t>94,93; 97,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,02; 98,16</t>
+          <t>96,11; 98,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,76; 81,0</t>
+          <t>71,1; 80,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,58; 75,52</t>
+          <t>66,38; 75,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>70,39; 76,85</t>
+          <t>70,21; 76,67</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>94,95; 99,26</t>
+          <t>95,16; 99,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>46,69; 96,45</t>
+          <t>42,91; 96,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>59,24; 97,15</t>
+          <t>57,57; 97,13</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>97,52; 100,0</t>
+          <t>97,32; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>95,43; 100,0</t>
+          <t>96,03; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>97,46; 99,82</t>
+          <t>97,36; 99,73</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>86,34; 93,6</t>
+          <t>86,03; 93,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>85,11; 92,07</t>
+          <t>85,07; 92,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>86,99; 91,99</t>
+          <t>86,95; 91,97</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>72,58; 80,76</t>
+          <t>72,61; 80,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>71,64; 90,43</t>
+          <t>71,65; 90,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>73,96; 86,57</t>
+          <t>73,81; 86,56</t>
         </is>
       </c>
     </row>
@@ -929,7 +930,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>96,25; 99,32</t>
+          <t>96,0; 99,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -939,7 +940,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>97,64; 99,22</t>
+          <t>97,67; 99,23</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>86,59; 91,03</t>
+          <t>86,56; 91,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>79,01; 87,97</t>
+          <t>79,85; 87,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>83,85; 88,5</t>
+          <t>83,85; 88,45</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sí diría que estar con dificultad para respirar es un síntoma de que a alguien le está dando un ataque al corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>194764</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>176606</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>371370</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>172739; 214810</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>163720; 189925</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>345229; 395863</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>491312</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>480977</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>972290</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>480112; 497357</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>472614; 487070</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>960562; 980998</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>220025</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>217680</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>437704</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>204766; 232523</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>203317; 230438</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>417265; 455625</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>240149</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>282002</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>522152</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>233599; 243419</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>156270; 350855</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>350960; 592187</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>174496</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>202902</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>377398</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>171133; 175854</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>196720; 204845</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>370645; 379658</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>221209</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>195309</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>416519</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>210373; 228889</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>186886; 202601</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>403643; 426955</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1032</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>447749</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>639827</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1087577</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>423742; 468949</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>576063; 727875</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1024190; 1201071</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1648</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>839075</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>662140</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1501216</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>822998; 851059</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>657782; 664580</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1488444; 1512210</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2675</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>4182</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>6857</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2828781</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2857444</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>5686225</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2776002; 2918806</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2672728; 2942438</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>5495729; 5797475</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>